--- a/results_cnn_subnetwork_evaluation/pseudoinverse/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_parm_0.025.xlsx
+++ b/results_cnn_subnetwork_evaluation/pseudoinverse/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel_parm_0.025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pseudoinverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8669C-1C1A-4773-BFB0-8411BAA16248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F43AB-A9C4-4744-9ABF-5C052002CFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="720" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pseudoinverse_sr_0.5" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="pseudoinverse_sr_0.1" sheetId="4" r:id="rId4"/>
     <sheet name="pseudoinverse_sr_0.07" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
   <si>
     <t>Identifier</t>
   </si>
@@ -87,6 +100,10 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -158,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,6 +770,15 @@
       </c>
       <c r="E17">
         <v>0.87025711660041738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>STDEV(B2:B17)</f>
+        <v>6.6469316687929103</v>
       </c>
     </row>
   </sheetData>
@@ -763,11 +789,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1058,6 +1082,15 @@
       </c>
       <c r="E17">
         <v>0.8241666623047833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>STDEV(B2:B17)</f>
+        <v>7.7343249903127784</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,6 +1396,15 @@
       </c>
       <c r="E17">
         <v>0.80669185982778113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>STDEV(B2:B17)</f>
+        <v>7.5163494293568158</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1668,6 +1710,15 @@
       </c>
       <c r="E17">
         <v>0.71322096613669872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>STDEV(B2:B17)</f>
+        <v>9.7190400716934775</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1973,6 +2024,15 @@
         <v>0.66070155570697431</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>STDEV(B2:B17)</f>
+        <v>9.9188764879136677</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
